--- a/excel/students.xlsx
+++ b/excel/students.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simoh\Desktop\XML\projectXML-date-18-12-2021\ExcelTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\NetBeansProjects\projetXML\test_jexcel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9F2686-19A2-43D4-A2F0-EF07C9509BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAACF20-19CA-43AD-B9C1-E9F653057C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="6108" yWindow="3288" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
@@ -54,21 +54,6 @@
     <t>B18</t>
   </si>
   <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>A78</t>
-  </si>
-  <si>
-    <t>D67</t>
-  </si>
-  <si>
-    <t>Z33</t>
-  </si>
-  <si>
-    <t>F34</t>
-  </si>
-  <si>
     <t>prenom1@test.com</t>
   </si>
   <si>
@@ -108,9 +93,6 @@
     <t>Mohamed</t>
   </si>
   <si>
-    <t>R12</t>
-  </si>
-  <si>
     <t>Khabar</t>
   </si>
   <si>
@@ -120,129 +102,6 @@
     <t>achraf@test.com</t>
   </si>
   <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>R14</t>
-  </si>
-  <si>
-    <t>R15</t>
-  </si>
-  <si>
-    <t>R16</t>
-  </si>
-  <si>
-    <t>R17</t>
-  </si>
-  <si>
-    <t>R18</t>
-  </si>
-  <si>
-    <t>R19</t>
-  </si>
-  <si>
-    <t>R20</t>
-  </si>
-  <si>
-    <t>R21</t>
-  </si>
-  <si>
-    <t>R22</t>
-  </si>
-  <si>
-    <t>R23</t>
-  </si>
-  <si>
-    <t>R24</t>
-  </si>
-  <si>
-    <t>R25</t>
-  </si>
-  <si>
-    <t>R26</t>
-  </si>
-  <si>
-    <t>R27</t>
-  </si>
-  <si>
-    <t>R28</t>
-  </si>
-  <si>
-    <t>R29</t>
-  </si>
-  <si>
-    <t>R30</t>
-  </si>
-  <si>
-    <t>R31</t>
-  </si>
-  <si>
-    <t>R32</t>
-  </si>
-  <si>
-    <t>R33</t>
-  </si>
-  <si>
-    <t>R34</t>
-  </si>
-  <si>
-    <t>R35</t>
-  </si>
-  <si>
-    <t>R36</t>
-  </si>
-  <si>
-    <t>R37</t>
-  </si>
-  <si>
-    <t>R38</t>
-  </si>
-  <si>
-    <t>R39</t>
-  </si>
-  <si>
-    <t>R40</t>
-  </si>
-  <si>
-    <t>R41</t>
-  </si>
-  <si>
-    <t>R42</t>
-  </si>
-  <si>
-    <t>R43</t>
-  </si>
-  <si>
-    <t>R44</t>
-  </si>
-  <si>
-    <t>R45</t>
-  </si>
-  <si>
-    <t>R46</t>
-  </si>
-  <si>
-    <t>R47</t>
-  </si>
-  <si>
-    <t>R48</t>
-  </si>
-  <si>
-    <t>R49</t>
-  </si>
-  <si>
-    <t>R50</t>
-  </si>
-  <si>
-    <t>R51</t>
-  </si>
-  <si>
-    <t>R52</t>
-  </si>
-  <si>
-    <t>Salah</t>
-  </si>
-  <si>
     <t>Trezeget</t>
   </si>
   <si>
@@ -262,6 +121,147 @@
   </si>
   <si>
     <t>Hassani@test.com</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>B14</t>
+  </si>
+  <si>
+    <t>B15</t>
+  </si>
+  <si>
+    <t>B16</t>
+  </si>
+  <si>
+    <t>B17</t>
+  </si>
+  <si>
+    <t>B19</t>
+  </si>
+  <si>
+    <t>B20</t>
+  </si>
+  <si>
+    <t>B21</t>
+  </si>
+  <si>
+    <t>B22</t>
+  </si>
+  <si>
+    <t>B23</t>
+  </si>
+  <si>
+    <t>B24</t>
+  </si>
+  <si>
+    <t>B25</t>
+  </si>
+  <si>
+    <t>B26</t>
+  </si>
+  <si>
+    <t>B27</t>
+  </si>
+  <si>
+    <t>B28</t>
+  </si>
+  <si>
+    <t>B29</t>
+  </si>
+  <si>
+    <t>B30</t>
+  </si>
+  <si>
+    <t>B31</t>
+  </si>
+  <si>
+    <t>B32</t>
+  </si>
+  <si>
+    <t>B33</t>
+  </si>
+  <si>
+    <t>B34</t>
+  </si>
+  <si>
+    <t>B35</t>
+  </si>
+  <si>
+    <t>B36</t>
+  </si>
+  <si>
+    <t>B37</t>
+  </si>
+  <si>
+    <t>B38</t>
+  </si>
+  <si>
+    <t>B39</t>
+  </si>
+  <si>
+    <t>B40</t>
+  </si>
+  <si>
+    <t>B41</t>
+  </si>
+  <si>
+    <t>B42</t>
+  </si>
+  <si>
+    <t>B43</t>
+  </si>
+  <si>
+    <t>B44</t>
+  </si>
+  <si>
+    <t>B45</t>
+  </si>
+  <si>
+    <t>B46</t>
+  </si>
+  <si>
+    <t>B47</t>
+  </si>
+  <si>
+    <t>B48</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>Said</t>
   </si>
 </sst>
 </file>
@@ -351,7 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -372,9 +372,6 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -383,7 +380,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -665,10 +662,10 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22.109375" customWidth="1"/>
     <col min="5" max="5" width="19.88671875" customWidth="1"/>
@@ -698,27 +695,27 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D2" s="4">
         <v>36810</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G2" s="7">
         <v>612906651</v>
@@ -729,22 +726,22 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4">
         <v>36811</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G3" s="7">
         <v>612906651</v>
@@ -755,22 +752,22 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4">
         <v>36812</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G4" s="7">
         <v>612906651</v>
@@ -781,22 +778,22 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4">
         <v>36813</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G5" s="7">
         <v>612906651</v>
@@ -807,22 +804,22 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4">
         <v>36814</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G6" s="7">
         <v>612906651</v>
@@ -833,22 +830,22 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D7" s="4">
         <v>36815</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G7" s="7">
         <v>612906651</v>
@@ -859,22 +856,22 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4">
         <v>36816</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G8" s="7">
         <v>612906651</v>
@@ -885,23 +882,23 @@
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>29</v>
+      <c r="A9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="D9" s="4">
         <v>36817</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G9" s="7">
         <v>612906651</v>
@@ -911,23 +908,23 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>29</v>
+      <c r="A10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="D10" s="4">
         <v>36818</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G10" s="7">
         <v>612906652</v>
@@ -937,23 +934,23 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>29</v>
+      <c r="A11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="D11" s="4">
         <v>36819</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G11" s="7">
         <v>612906653</v>
@@ -963,23 +960,23 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>29</v>
+      <c r="A12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="D12" s="4">
         <v>36820</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G12" s="7">
         <v>612906654</v>
@@ -989,23 +986,23 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>29</v>
+      <c r="A13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="D13" s="4">
         <v>36821</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G13" s="7">
         <v>612906655</v>
@@ -1015,23 +1012,23 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>29</v>
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="D14" s="4">
         <v>36822</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G14" s="7">
         <v>612906656</v>
@@ -1041,23 +1038,23 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>29</v>
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="D15" s="4">
         <v>36823</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G15" s="7">
         <v>612906657</v>
@@ -1067,23 +1064,23 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>29</v>
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="D16" s="4">
         <v>36824</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G16" s="7">
         <v>612906658</v>
@@ -1093,23 +1090,23 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>29</v>
+      <c r="A17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="D17" s="4">
         <v>36825</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G17" s="7">
         <v>612906659</v>
@@ -1119,23 +1116,23 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>26</v>
+      <c r="A18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="D18" s="4">
         <v>36826</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G18" s="7">
         <v>612906660</v>
@@ -1145,23 +1142,23 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>26</v>
+      <c r="A19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="D19" s="4">
         <v>36827</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G19" s="7">
         <v>612906661</v>
@@ -1171,23 +1168,23 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>26</v>
+      <c r="A20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="D20" s="4">
         <v>36828</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G20" s="7">
         <v>612906662</v>
@@ -1197,23 +1194,23 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>26</v>
+      <c r="A21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="D21" s="4">
         <v>36829</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G21" s="7">
         <v>612906663</v>
@@ -1223,23 +1220,23 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>26</v>
+      <c r="A22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="D22" s="4">
         <v>36830</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G22" s="7">
         <v>612906664</v>
@@ -1249,23 +1246,23 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>26</v>
+      <c r="A23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="D23" s="4">
         <v>36831</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G23" s="7">
         <v>612906665</v>
@@ -1275,23 +1272,23 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>26</v>
+      <c r="A24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="D24" s="4">
         <v>36832</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G24" s="7">
         <v>612906666</v>
@@ -1301,23 +1298,23 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>26</v>
+      <c r="A25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="D25" s="4">
         <v>36833</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G25" s="7">
         <v>612906667</v>
@@ -1327,23 +1324,23 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>26</v>
+      <c r="A26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="D26" s="4">
         <v>36834</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G26" s="7">
         <v>612906668</v>
@@ -1353,23 +1350,23 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>74</v>
+      <c r="A27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D27" s="4">
         <v>36835</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G27" s="7">
         <v>612906669</v>
@@ -1379,23 +1376,23 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>74</v>
+      <c r="A28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D28" s="4">
         <v>36836</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G28" s="7">
         <v>612906670</v>
@@ -1405,23 +1402,23 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>74</v>
+      <c r="A29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D29" s="4">
         <v>36837</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G29" s="7">
         <v>612906671</v>
@@ -1431,23 +1428,23 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>74</v>
+      <c r="A30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D30" s="4">
         <v>36838</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G30" s="7">
         <v>612906672</v>
@@ -1457,23 +1454,23 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>74</v>
+      <c r="A31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D31" s="4">
         <v>36839</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G31" s="7">
         <v>612906673</v>
@@ -1483,23 +1480,23 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>74</v>
+      <c r="A32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D32" s="4">
         <v>36840</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G32" s="7">
         <v>612906674</v>
@@ -1509,23 +1506,23 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>74</v>
+      <c r="A33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D33" s="4">
         <v>36841</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G33" s="7">
         <v>612906675</v>
@@ -1535,23 +1532,23 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>74</v>
+      <c r="A34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D34" s="4">
         <v>36842</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G34" s="7">
         <v>612906676</v>
@@ -1561,23 +1558,23 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>74</v>
+      <c r="A35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D35" s="4">
         <v>36843</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G35" s="7">
         <v>612906677</v>
@@ -1587,23 +1584,23 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>74</v>
+      <c r="A36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D36" s="4">
         <v>36844</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G36" s="7">
         <v>612906678</v>
@@ -1613,23 +1610,23 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>74</v>
+      <c r="A37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D37" s="4">
         <v>36845</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G37" s="7">
         <v>612906679</v>
@@ -1639,23 +1636,23 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>75</v>
+      <c r="A38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="D38" s="4">
         <v>36846</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G38" s="7">
         <v>612906680</v>
@@ -1665,23 +1662,23 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>75</v>
+      <c r="A39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="D39" s="4">
         <v>36847</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G39" s="7">
         <v>612906681</v>
@@ -1691,23 +1688,23 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>75</v>
+      <c r="A40" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="D40" s="4">
         <v>36848</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G40" s="7">
         <v>612906682</v>
@@ -1717,23 +1714,23 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>75</v>
+      <c r="A41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="D41" s="4">
         <v>36849</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G41" s="7">
         <v>612906683</v>
@@ -1743,23 +1740,23 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>75</v>
+      <c r="A42" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="D42" s="4">
         <v>36850</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G42" s="7">
         <v>612906684</v>
@@ -1769,23 +1766,23 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>75</v>
+      <c r="A43" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="D43" s="4">
         <v>36851</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G43" s="7">
         <v>612906685</v>
@@ -1795,23 +1792,23 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>75</v>
+      <c r="A44" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="D44" s="4">
         <v>36852</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G44" s="7">
         <v>612906686</v>
@@ -1821,23 +1818,23 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>75</v>
+      <c r="A45" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="D45" s="4">
         <v>36853</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G45" s="7">
         <v>612906687</v>
@@ -1847,23 +1844,23 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>75</v>
+      <c r="A46" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="D46" s="4">
         <v>36854</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G46" s="7">
         <v>612906688</v>
@@ -1873,23 +1870,23 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>75</v>
+      <c r="A47" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="D47" s="4">
         <v>36855</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G47" s="7">
         <v>612906689</v>
@@ -1899,23 +1896,23 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>75</v>
+      <c r="A48" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="D48" s="4">
         <v>36856</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G48" s="7">
         <v>612906690</v>
@@ -1925,23 +1922,23 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>75</v>
+      <c r="A49" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="D49" s="4">
         <v>36857</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="G49" s="7">
         <v>612906691</v>

--- a/excel/students.xlsx
+++ b/excel/students.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\NetBeansProjects\projetXML\test_jexcel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAACF20-19CA-43AD-B9C1-E9F653057C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F2E552-72C8-4BDB-975B-458809C5157F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6108" yWindow="3288" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="160">
   <si>
     <t>Nom</t>
   </si>
@@ -81,187 +81,430 @@
     <t>dateInscri</t>
   </si>
   <si>
+    <t>Mohamed</t>
+  </si>
+  <si>
+    <t>achraf@test.com</t>
+  </si>
+  <si>
+    <t>Fathi</t>
+  </si>
+  <si>
+    <t>Hamdi</t>
+  </si>
+  <si>
+    <t>mohamed@test.com</t>
+  </si>
+  <si>
+    <t>Hamdi@test.com</t>
+  </si>
+  <si>
+    <t>Hassani@test.com</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>B14</t>
+  </si>
+  <si>
+    <t>B15</t>
+  </si>
+  <si>
+    <t>B16</t>
+  </si>
+  <si>
+    <t>B17</t>
+  </si>
+  <si>
+    <t>B19</t>
+  </si>
+  <si>
+    <t>B20</t>
+  </si>
+  <si>
+    <t>B21</t>
+  </si>
+  <si>
+    <t>B22</t>
+  </si>
+  <si>
+    <t>B23</t>
+  </si>
+  <si>
+    <t>B24</t>
+  </si>
+  <si>
+    <t>B25</t>
+  </si>
+  <si>
+    <t>B26</t>
+  </si>
+  <si>
+    <t>B27</t>
+  </si>
+  <si>
+    <t>B28</t>
+  </si>
+  <si>
+    <t>B29</t>
+  </si>
+  <si>
+    <t>B30</t>
+  </si>
+  <si>
+    <t>B31</t>
+  </si>
+  <si>
+    <t>B32</t>
+  </si>
+  <si>
+    <t>B33</t>
+  </si>
+  <si>
+    <t>B34</t>
+  </si>
+  <si>
+    <t>B35</t>
+  </si>
+  <si>
+    <t>B36</t>
+  </si>
+  <si>
+    <t>B37</t>
+  </si>
+  <si>
+    <t>B38</t>
+  </si>
+  <si>
+    <t>B39</t>
+  </si>
+  <si>
+    <t>B40</t>
+  </si>
+  <si>
+    <t>B41</t>
+  </si>
+  <si>
+    <t>B42</t>
+  </si>
+  <si>
+    <t>B43</t>
+  </si>
+  <si>
+    <t>B44</t>
+  </si>
+  <si>
+    <t>B45</t>
+  </si>
+  <si>
+    <t>B46</t>
+  </si>
+  <si>
+    <t>B47</t>
+  </si>
+  <si>
+    <t>B48</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>Said</t>
+  </si>
+  <si>
+    <t>Asmae</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Ayoub</t>
+  </si>
+  <si>
+    <t>SAAD</t>
+  </si>
+  <si>
+    <t>YOUNESSE</t>
+  </si>
+  <si>
+    <t>Yassine</t>
+  </si>
+  <si>
+    <t>raja</t>
+  </si>
+  <si>
+    <t>Akram</t>
+  </si>
+  <si>
+    <t>Youssef</t>
+  </si>
+  <si>
+    <t>Naila</t>
+  </si>
+  <si>
+    <t>Amine</t>
+  </si>
+  <si>
+    <t>Mouaad</t>
+  </si>
+  <si>
+    <t>Amina</t>
+  </si>
+  <si>
+    <t>Hanane</t>
+  </si>
+  <si>
+    <t>Walid</t>
+  </si>
+  <si>
+    <t>MOUAD</t>
+  </si>
+  <si>
+    <t>Saloua</t>
+  </si>
+  <si>
+    <t>Ayman</t>
+  </si>
+  <si>
+    <t>Idrissi</t>
+  </si>
+  <si>
+    <t>Hassan</t>
+  </si>
+  <si>
+    <t>Azziz</t>
+  </si>
+  <si>
+    <t>Naji</t>
+  </si>
+  <si>
+    <t>Karim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Said </t>
+  </si>
+  <si>
+    <t>Bennis</t>
+  </si>
+  <si>
+    <t>El alami</t>
+  </si>
+  <si>
+    <t>Naciri</t>
+  </si>
+  <si>
+    <t>Mansouri</t>
+  </si>
+  <si>
+    <t>Sbai</t>
+  </si>
+  <si>
+    <t>Rachidi</t>
+  </si>
+  <si>
+    <t>Bakkali</t>
+  </si>
+  <si>
+    <t>Abid</t>
+  </si>
+  <si>
+    <t>Ouazzani</t>
+  </si>
+  <si>
+    <t>Salmi</t>
+  </si>
+  <si>
+    <t>Mesouadi</t>
+  </si>
+  <si>
+    <t>Hilali</t>
+  </si>
+  <si>
+    <t>Nabil</t>
+  </si>
+  <si>
+    <t>Hamdaoui</t>
+  </si>
+  <si>
+    <t>Senhaji</t>
+  </si>
+  <si>
+    <t>Aarab</t>
+  </si>
+  <si>
+    <t>Zahir</t>
+  </si>
+  <si>
+    <t>Fadili</t>
+  </si>
+  <si>
+    <t>Toueil</t>
+  </si>
+  <si>
+    <t>Moumen</t>
+  </si>
+  <si>
+    <t>Amraoui</t>
+  </si>
+  <si>
+    <t>Zerouali</t>
+  </si>
+  <si>
+    <t>Benbrahim</t>
+  </si>
+  <si>
+    <t>Soussi</t>
+  </si>
+  <si>
+    <t>Ghazi</t>
+  </si>
+  <si>
+    <t>Amzil</t>
+  </si>
+  <si>
+    <t>Mahfoud</t>
+  </si>
+  <si>
+    <t>Bouayad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oulad  </t>
+  </si>
+  <si>
+    <t>Mouhib</t>
+  </si>
+  <si>
+    <t>Merkaoui</t>
+  </si>
+  <si>
+    <t>El ouardi</t>
+  </si>
+  <si>
+    <t>Mourchid</t>
+  </si>
+  <si>
+    <t>Nasri</t>
+  </si>
+  <si>
+    <t>Benzakour</t>
+  </si>
+  <si>
+    <t>Diouri</t>
+  </si>
+  <si>
+    <t>Maaroud</t>
+  </si>
+  <si>
+    <t>Kadouri</t>
+  </si>
+  <si>
+    <t>Fatima</t>
+  </si>
+  <si>
+    <t>Ahmed</t>
+  </si>
+  <si>
+    <t>Khadija</t>
+  </si>
+  <si>
+    <t>Rachid</t>
+  </si>
+  <si>
+    <t>Mustapha</t>
+  </si>
+  <si>
+    <t>Hicham</t>
+  </si>
+  <si>
+    <t>Imane</t>
+  </si>
+  <si>
+    <t>Omar</t>
+  </si>
+  <si>
+    <t>Nadia</t>
+  </si>
+  <si>
+    <t>Zineb</t>
+  </si>
+  <si>
+    <t>Abdellah</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>Malika</t>
+  </si>
+  <si>
+    <t>Latifa</t>
+  </si>
+  <si>
+    <t>Zakaria</t>
+  </si>
+  <si>
+    <t>Najat</t>
+  </si>
+  <si>
+    <t>Jamila</t>
+  </si>
+  <si>
+    <t>Soufiane</t>
+  </si>
+  <si>
+    <t>Ghizlane</t>
+  </si>
+  <si>
+    <t>Halima</t>
+  </si>
+  <si>
+    <t>Saad</t>
+  </si>
+  <si>
+    <t>Anasss</t>
+  </si>
+  <si>
+    <t>Sanae</t>
+  </si>
+  <si>
+    <t>Ait Saleh</t>
+  </si>
+  <si>
     <t>Aouad</t>
   </si>
   <si>
     <t>Sami</t>
-  </si>
-  <si>
-    <t>Agnaou</t>
-  </si>
-  <si>
-    <t>Mohamed</t>
-  </si>
-  <si>
-    <t>Khabar</t>
-  </si>
-  <si>
-    <t>Achraf</t>
-  </si>
-  <si>
-    <t>achraf@test.com</t>
-  </si>
-  <si>
-    <t>Trezeget</t>
-  </si>
-  <si>
-    <t>Fathi</t>
-  </si>
-  <si>
-    <t>Hamdi</t>
-  </si>
-  <si>
-    <t>Hassani</t>
-  </si>
-  <si>
-    <t>mohamed@test.com</t>
-  </si>
-  <si>
-    <t>Hamdi@test.com</t>
-  </si>
-  <si>
-    <t>Hassani@test.com</t>
-  </si>
-  <si>
-    <t>B13</t>
-  </si>
-  <si>
-    <t>B14</t>
-  </si>
-  <si>
-    <t>B15</t>
-  </si>
-  <si>
-    <t>B16</t>
-  </si>
-  <si>
-    <t>B17</t>
-  </si>
-  <si>
-    <t>B19</t>
-  </si>
-  <si>
-    <t>B20</t>
-  </si>
-  <si>
-    <t>B21</t>
-  </si>
-  <si>
-    <t>B22</t>
-  </si>
-  <si>
-    <t>B23</t>
-  </si>
-  <si>
-    <t>B24</t>
-  </si>
-  <si>
-    <t>B25</t>
-  </si>
-  <si>
-    <t>B26</t>
-  </si>
-  <si>
-    <t>B27</t>
-  </si>
-  <si>
-    <t>B28</t>
-  </si>
-  <si>
-    <t>B29</t>
-  </si>
-  <si>
-    <t>B30</t>
-  </si>
-  <si>
-    <t>B31</t>
-  </si>
-  <si>
-    <t>B32</t>
-  </si>
-  <si>
-    <t>B33</t>
-  </si>
-  <si>
-    <t>B34</t>
-  </si>
-  <si>
-    <t>B35</t>
-  </si>
-  <si>
-    <t>B36</t>
-  </si>
-  <si>
-    <t>B37</t>
-  </si>
-  <si>
-    <t>B38</t>
-  </si>
-  <si>
-    <t>B39</t>
-  </si>
-  <si>
-    <t>B40</t>
-  </si>
-  <si>
-    <t>B41</t>
-  </si>
-  <si>
-    <t>B42</t>
-  </si>
-  <si>
-    <t>B43</t>
-  </si>
-  <si>
-    <t>B44</t>
-  </si>
-  <si>
-    <t>B45</t>
-  </si>
-  <si>
-    <t>B46</t>
-  </si>
-  <si>
-    <t>B47</t>
-  </si>
-  <si>
-    <t>B48</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>Said</t>
   </si>
 </sst>
 </file>
@@ -272,7 +515,7 @@
     <numFmt numFmtId="164" formatCode="0#&quot; &quot;##&quot; &quot;##&quot; &quot;##&quot; &quot;##"/>
     <numFmt numFmtId="165" formatCode="#&quot; &quot;00&quot; &quot;00&quot; &quot;00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +544,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -351,7 +601,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -374,6 +624,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -662,7 +915,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,13 +953,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D2" s="4">
         <v>36810</v>
@@ -726,13 +979,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>61</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>134</v>
       </c>
       <c r="D3" s="4">
         <v>36811</v>
@@ -752,13 +1005,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>62</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="D4" s="4">
         <v>36812</v>
@@ -778,13 +1031,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>63</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="D5" s="4">
         <v>36813</v>
@@ -804,13 +1057,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>64</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="D6" s="4">
         <v>36814</v>
@@ -830,13 +1083,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>65</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="D7" s="4">
         <v>36815</v>
@@ -856,13 +1109,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>66</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="D8" s="4">
         <v>36816</v>
@@ -883,19 +1136,19 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>23</v>
+        <v>67</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="D9" s="4">
         <v>36817</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>16</v>
@@ -909,19 +1162,19 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>23</v>
+        <v>68</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="D10" s="4">
         <v>36818</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>16</v>
@@ -935,19 +1188,19 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>23</v>
+        <v>69</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="D11" s="4">
         <v>36819</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>16</v>
@@ -961,19 +1214,19 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>23</v>
+        <v>70</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="D12" s="4">
         <v>36820</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>16</v>
@@ -989,17 +1242,17 @@
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>23</v>
+      <c r="B13" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="D13" s="4">
         <v>36821</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>16</v>
@@ -1013,19 +1266,19 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="D14" s="4">
         <v>36822</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>16</v>
@@ -1039,19 +1292,19 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="D15" s="4">
         <v>36823</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>16</v>
@@ -1065,19 +1318,19 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="D16" s="4">
         <v>36824</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>16</v>
@@ -1091,19 +1344,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>143</v>
       </c>
       <c r="D17" s="4">
         <v>36825</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>16</v>
@@ -1117,19 +1370,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="D18" s="4">
         <v>36826</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>16</v>
@@ -1145,17 +1398,17 @@
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>21</v>
+      <c r="B19" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="D19" s="4">
         <v>36827</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>16</v>
@@ -1169,19 +1422,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="D20" s="4">
         <v>36828</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>16</v>
@@ -1195,19 +1448,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="D21" s="4">
         <v>36829</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>16</v>
@@ -1221,19 +1474,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>21</v>
+        <v>32</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="D22" s="4">
         <v>36830</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>16</v>
@@ -1247,19 +1500,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="D23" s="4">
         <v>36831</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>16</v>
@@ -1273,19 +1526,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>21</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="D24" s="4">
         <v>36832</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>16</v>
@@ -1299,19 +1552,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="D25" s="4">
         <v>36833</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>16</v>
@@ -1325,19 +1578,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>21</v>
+        <v>36</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="D26" s="4">
         <v>36834</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>16</v>
@@ -1351,19 +1604,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>27</v>
+        <v>111</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="D27" s="4">
         <v>36835</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>16</v>
@@ -1377,19 +1630,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>27</v>
+        <v>112</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="D28" s="4">
         <v>36836</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>16</v>
@@ -1403,19 +1656,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>27</v>
+        <v>113</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="D29" s="4">
         <v>36837</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>16</v>
@@ -1429,19 +1682,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>27</v>
+        <v>114</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="D30" s="4">
         <v>36838</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>16</v>
@@ -1455,19 +1708,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>27</v>
+        <v>115</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="D31" s="4">
         <v>36839</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>16</v>
@@ -1481,19 +1734,19 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>27</v>
+        <v>116</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="D32" s="4">
         <v>36840</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>16</v>
@@ -1507,19 +1760,19 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>27</v>
+        <v>117</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="D33" s="4">
         <v>36841</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>16</v>
@@ -1533,19 +1786,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>27</v>
+        <v>118</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>150</v>
       </c>
       <c r="D34" s="4">
         <v>36842</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>16</v>
@@ -1559,19 +1812,19 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>27</v>
+        <v>119</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="D35" s="4">
         <v>36843</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>16</v>
@@ -1585,19 +1838,19 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>27</v>
+        <v>120</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="D36" s="4">
         <v>36844</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>16</v>
@@ -1611,19 +1864,19 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>27</v>
+        <v>121</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="D37" s="4">
         <v>36845</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>16</v>
@@ -1637,19 +1890,19 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>28</v>
+        <v>122</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="D38" s="4">
         <v>36846</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>16</v>
@@ -1663,19 +1916,19 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>28</v>
+        <v>123</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="D39" s="4">
         <v>36847</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>16</v>
@@ -1689,19 +1942,19 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>28</v>
+        <v>124</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="D40" s="4">
         <v>36848</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>16</v>
@@ -1715,19 +1968,19 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>28</v>
+        <v>125</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="D41" s="4">
         <v>36849</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>16</v>
@@ -1741,19 +1994,19 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>28</v>
+        <v>126</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="D42" s="4">
         <v>36850</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>16</v>
@@ -1767,19 +2020,19 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>28</v>
+        <v>127</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="D43" s="4">
         <v>36851</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>16</v>
@@ -1793,19 +2046,19 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>28</v>
+        <v>128</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="D44" s="4">
         <v>36852</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>16</v>
@@ -1819,19 +2072,19 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>28</v>
+        <v>129</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>154</v>
       </c>
       <c r="D45" s="4">
         <v>36853</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>16</v>
@@ -1845,19 +2098,19 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>28</v>
+        <v>130</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="D46" s="4">
         <v>36854</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>16</v>
@@ -1871,19 +2124,19 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>28</v>
+        <v>131</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="D47" s="4">
         <v>36855</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>16</v>
@@ -1897,19 +2150,19 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>28</v>
+        <v>132</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="D48" s="4">
         <v>36856</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>16</v>
@@ -1923,19 +2176,19 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>28</v>
+        <v>133</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>156</v>
       </c>
       <c r="D49" s="4">
         <v>36857</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>16</v>
@@ -1950,22 +2203,22 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{05D37322-0B90-4F96-9EA8-36BB9F4265CA}"/>
-    <hyperlink ref="E3:E8" r:id="rId2" display="prenom1@test.com" xr:uid="{F25B6885-8C3A-4726-8851-7E99498A5EDA}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{F73401F6-2A1C-477B-A5AC-77A3EBFAD0A8}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{1052FA29-1D73-49F1-B96B-75DF7D5697F1}"/>
-    <hyperlink ref="E5" r:id="rId5" xr:uid="{43ABF414-80B1-4383-A336-ABA2A49D0098}"/>
-    <hyperlink ref="E6" r:id="rId6" xr:uid="{C2E1B19B-0B3D-4E56-A031-370571089E59}"/>
-    <hyperlink ref="E7" r:id="rId7" xr:uid="{C112C825-9387-4AD3-AF7C-274333041683}"/>
-    <hyperlink ref="E8" r:id="rId8" xr:uid="{06A3BCCB-00DA-4ED5-B329-FEAEA2CA0532}"/>
-    <hyperlink ref="E9" r:id="rId9" xr:uid="{7538C172-319C-40F5-81DC-C34994F00A57}"/>
-    <hyperlink ref="E10:E17" r:id="rId10" display="achraf@test.com" xr:uid="{F066F396-5B45-485B-8900-360CE895A20D}"/>
-    <hyperlink ref="E18" r:id="rId11" xr:uid="{12024D3C-669B-4BE3-901A-7CAA74720498}"/>
-    <hyperlink ref="E19:E26" r:id="rId12" display="mohamed@test.com" xr:uid="{579F5BFF-2677-4B62-BD6A-EB3758939F7B}"/>
-    <hyperlink ref="E27" r:id="rId13" xr:uid="{C4B58F81-4953-4A9B-A1AA-4D335F1CE849}"/>
-    <hyperlink ref="E28:E37" r:id="rId14" display="Hamdi@test.com" xr:uid="{2EC4C38A-6146-4776-8763-A52523082C5A}"/>
-    <hyperlink ref="E38" r:id="rId15" xr:uid="{06912524-5BF8-4C32-BF21-E32E4DCDA5A8}"/>
-    <hyperlink ref="E39:E49" r:id="rId16" display="Hassani@test.com" xr:uid="{14E91FE1-00AE-4D09-BEFA-8EE708C72931}"/>
+    <hyperlink ref="E10:E17" r:id="rId1" display="achraf@test.com" xr:uid="{F066F396-5B45-485B-8900-360CE895A20D}"/>
+    <hyperlink ref="E18" r:id="rId2" xr:uid="{12024D3C-669B-4BE3-901A-7CAA74720498}"/>
+    <hyperlink ref="E19:E26" r:id="rId3" display="mohamed@test.com" xr:uid="{579F5BFF-2677-4B62-BD6A-EB3758939F7B}"/>
+    <hyperlink ref="E27" r:id="rId4" xr:uid="{C4B58F81-4953-4A9B-A1AA-4D335F1CE849}"/>
+    <hyperlink ref="E28:E37" r:id="rId5" display="Hamdi@test.com" xr:uid="{2EC4C38A-6146-4776-8763-A52523082C5A}"/>
+    <hyperlink ref="E38" r:id="rId6" xr:uid="{06912524-5BF8-4C32-BF21-E32E4DCDA5A8}"/>
+    <hyperlink ref="E39:E49" r:id="rId7" display="Hassani@test.com" xr:uid="{14E91FE1-00AE-4D09-BEFA-8EE708C72931}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{7538C172-319C-40F5-81DC-C34994F00A57}"/>
+    <hyperlink ref="E8" r:id="rId9" xr:uid="{06A3BCCB-00DA-4ED5-B329-FEAEA2CA0532}"/>
+    <hyperlink ref="E7" r:id="rId10" xr:uid="{C112C825-9387-4AD3-AF7C-274333041683}"/>
+    <hyperlink ref="E6" r:id="rId11" xr:uid="{C2E1B19B-0B3D-4E56-A031-370571089E59}"/>
+    <hyperlink ref="E5" r:id="rId12" xr:uid="{43ABF414-80B1-4383-A336-ABA2A49D0098}"/>
+    <hyperlink ref="E4" r:id="rId13" xr:uid="{1052FA29-1D73-49F1-B96B-75DF7D5697F1}"/>
+    <hyperlink ref="E3" r:id="rId14" xr:uid="{F73401F6-2A1C-477B-A5AC-77A3EBFAD0A8}"/>
+    <hyperlink ref="E3:E8" r:id="rId15" display="prenom1@test.com" xr:uid="{F25B6885-8C3A-4726-8851-7E99498A5EDA}"/>
+    <hyperlink ref="E2" r:id="rId16" xr:uid="{05D37322-0B90-4F96-9EA8-36BB9F4265CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId17"/>
